--- a/TradingSimula_18-2022/TF-Keltner_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Keltner_1R.xlsx
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>-11285.00000000001</v>
+        <v>-7600.649500000002</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-29835.00000000001</v>
+        <v>-1554.589500000017</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-22814.19999999997</v>
+        <v>-6083.464500000009</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-20931.19999999998</v>
+        <v>-8060.139500000009</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>-29921.59999999999</v>
+        <v>2118.662999999979</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>-35564.79999999999</v>
+        <v>9651.475999999959</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>-41234.59999999999</v>
+        <v>15981.163</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>-50856.59999999997</v>
+        <v>23942.10099999998</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>-55856.39999999997</v>
+        <v>31679.60100000002</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>-57241.39999999997</v>
+        <v>38741.73800000002</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>-64550.39999999999</v>
+        <v>21925.51050000002</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>-54955.2</v>
+        <v>20523.94749999999</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>-52464.39999999999</v>
+        <v>13790.55299999999</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>-53040.99999999997</v>
+        <v>12828.56799999999</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>-39353.39999999999</v>
+        <v>10274.69799999996</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>-24572.19999999998</v>
+        <v>19271.20599999997</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>-63455.19999999997</v>
+        <v>13527.45599999994</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>-59685.8</v>
+        <v>6195.792999999934</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>-71250.19999999998</v>
+        <v>14141.86799999997</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>-81014.40000000002</v>
+        <v>23179.36799999999</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>-63125.40000000002</v>
+        <v>38341.86799999998</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>-81310.00000000001</v>
+        <v>14987.91800000004</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>-71544.00000000001</v>
+        <v>4444.568000000032</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>-69626.60000000002</v>
+        <v>8767.751000000033</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>-69136.80000000002</v>
+        <v>3868.813000000042</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>-63430.39999999999</v>
+        <v>3324.545500000066</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>-63776.39999999999</v>
+        <v>3423.993000000068</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-64486.39999999999</v>
+        <v>-5216.358999999942</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>-36478.59999999998</v>
+        <v>16122.70300000009</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>-35196.99999999999</v>
+        <v>4172.703000000052</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>-43908.59999999998</v>
+        <v>12460.20300000004</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>-31407.59999999999</v>
+        <v>1864.828500000054</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>-36888.99999999999</v>
+        <v>149.2560000000449</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-40286.19999999998</v>
+        <v>-2916.894499999951</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-50253.59999999999</v>
+        <v>-1120.271999999924</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-51726.39999999998</v>
+        <v>-1648.011999999901</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>-49206.19999999998</v>
+        <v>12124.65300000011</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>-57944.99999999997</v>
+        <v>9984.615500000144</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>-57161.39999999998</v>
+        <v>12025.16350000015</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>-48774.8</v>
+        <v>16329.15050000013</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>-62132.80000000002</v>
+        <v>15394.35800000015</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>-71611.99999999999</v>
+        <v>10667.79500000014</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>-60831.79999999999</v>
+        <v>8853.733000000129</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>-60925.40000000002</v>
+        <v>6699.045000000115</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>-71747.79999999999</v>
+        <v>12545.70300000013</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>-71472.59999999998</v>
+        <v>15035.32800000011</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>-71034.39999999998</v>
+        <v>11055.3780000001</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>-77719.19999999998</v>
+        <v>15388.62600000009</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>-72446.39999999999</v>
+        <v>5100.378500000093</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>-59198.39999999999</v>
+        <v>5789.211000000107</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-68769.79999999997</v>
+        <v>-2526.87899999995</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-67012.99999999997</v>
+        <v>-3072.876499999951</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-69442.99999999999</v>
+        <v>-522.7564999999304</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-75983.99999999997</v>
+        <v>-5772.578999999994</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-74536.59999999995</v>
+        <v>-7505.861499999944</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>-74752.79999999996</v>
+        <v>1589.61400000006</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>-64879.79999999996</v>
+        <v>9878.191000000079</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>-50259.59999999996</v>
+        <v>17821.76150000009</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>-32742.99999999997</v>
+        <v>32417.07350000009</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>3431.200000000044</v>
+        <v>35846.96600000007</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>15243.80000000005</v>
+        <v>57284.77900000011</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>11686.60000000006</v>
+        <v>45742.72100000011</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>-1623.399999999947</v>
+        <v>43240.12850000009</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>3718.600000000053</v>
+        <v>33217.70350000009</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>-3882.199999999943</v>
+        <v>31428.5135000001</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>-7522.19999999995</v>
+        <v>33777.15600000011</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>11382.00000000006</v>
+        <v>22850.13100000014</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>5839.400000000041</v>
+        <v>17617.59350000014</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>19848.00000000004</v>
+        <v>12859.62850000011</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>15327.20000000006</v>
+        <v>4491.118500000148</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>20833.00000000006</v>
+        <v>6369.045500000158</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>37052.00000000004</v>
+        <v>-1522.814499999826</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>41786.00000000007</v>
+        <v>3118.51350000017</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>46058.60000000006</v>
+        <v>15912.26350000014</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>38679.60000000006</v>
+        <v>11922.77400000014</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>41106.60000000006</v>
+        <v>16251.57100000014</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>47957.80000000006</v>
+        <v>7803.658500000129</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>48653.20000000006</v>
+        <v>19209.57150000013</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>53360.40000000005</v>
+        <v>17954.88350000011</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>38240.80000000005</v>
+        <v>8908.721000000118</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>33450.60000000006</v>
+        <v>3958.3035000001</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>30950.60000000007</v>
+        <v>15631.55300000008</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>23478.80000000007</v>
+        <v>35483.54100000014</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>27593.80000000007</v>
+        <v>39166.35300000013</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>17102.60000000007</v>
+        <v>26688.87800000015</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>19752.60000000007</v>
+        <v>24890.41650000013</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>18233.60000000006</v>
+        <v>14977.61850000013</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>16842.20000000006</v>
+        <v>18279.30400000013</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>9112.000000000073</v>
+        <v>20553.44100000012</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>11145.40000000007</v>
+        <v>18902.43600000017</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>12659.00000000007</v>
+        <v>20114.65100000014</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>10808.60000000008</v>
+        <v>19976.94400000015</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>13708.60000000009</v>
+        <v>14933.93550000016</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>14325.80000000008</v>
+        <v>12841.63550000018</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>13720.60000000008</v>
+        <v>8953.835500000152</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>24512.60000000008</v>
+        <v>5439.273500000141</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>28418.20000000007</v>
+        <v>22355.59850000012</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>12042.20000000008</v>
+        <v>24127.47350000012</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>7982.600000000084</v>
+        <v>17266.12600000012</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>12537.00000000011</v>
+        <v>15025.56350000011</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>13142.8000000001</v>
+        <v>19224.67850000011</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>9617.800000000094</v>
+        <v>19402.7360000001</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>-288.7999999999038</v>
+        <v>18781.11100000011</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>-2040.399999999902</v>
+        <v>17838.1860000001</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>911.6000000001213</v>
+        <v>18140.95550000011</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>-4511.799999999854</v>
+        <v>19610.48850000012</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>37453.80000000013</v>
+        <v>17389.31650000011</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>42598.60000000013</v>
+        <v>25928.12850000014</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>19246.20000000014</v>
+        <v>27440.62850000014</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>22593.60000000014</v>
+        <v>21079.1285000002</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>24455.40000000014</v>
+        <v>22198.56600000018</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>33797.60000000014</v>
+        <v>16446.37100000017</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>34131.60000000016</v>
+        <v>27785.31400000017</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>26848.60000000015</v>
+        <v>30361.87600000019</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>13601.00000000015</v>
+        <v>31243.10350000018</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>11466.60000000015</v>
+        <v>49336.67600000017</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>-434.7999999998619</v>
+        <v>34382.18350000018</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>-4024.799999999859</v>
+        <v>25187.83050000016</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>-2854.799999999861</v>
+        <v>28938.89350000017</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>-13.99999999986539</v>
+        <v>29132.27600000019</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>11280.00000000014</v>
+        <v>26324.37650000021</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>26268.60000000014</v>
+        <v>39300.93850000022</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>70320.60000000014</v>
+        <v>46116.56350000027</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>84277.80000000013</v>
+        <v>46835.31350000025</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>64379.00000000013</v>
+        <v>42332.93850000027</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>67706.20000000013</v>
+        <v>32108.62150000024</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>66384.60000000014</v>
+        <v>43364.03350000024</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>72318.60000000012</v>
+        <v>37469.81600000022</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>60548.00000000013</v>
+        <v>27332.21600000022</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>61087.20000000014</v>
+        <v>28578.79850000024</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>59607.20000000014</v>
+        <v>20018.06100000022</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>70502.80000000013</v>
+        <v>27955.67350000023</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>75607.60000000014</v>
+        <v>28653.73850000024</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>92203.20000000014</v>
+        <v>44090.86550000022</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>85495.80000000013</v>
+        <v>58067.42850000023</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>82159.20000000013</v>
+        <v>47522.11550000023</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>84230.00000000012</v>
+        <v>45261.42600000024</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>101777.6000000001</v>
+        <v>45376.36850000026</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>97336.40000000014</v>
+        <v>48217.94350000024</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>85998.80000000013</v>
+        <v>47589.19100000025</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>104529.4000000001</v>
+        <v>50033.72300000026</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>113657.4000000002</v>
+        <v>51438.41100000028</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>99404.80000000016</v>
+        <v>50608.68600000028</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>83359.60000000015</v>
+        <v>43994.14100000025</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>88625.80000000015</v>
+        <v>44052.23550000025</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>98464.60000000018</v>
+        <v>38256.92350000028</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,7 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>148216.2000000002</v>
+        <v>52383.85600000031</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-Keltner_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Keltner_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$148</f>
+              <f>'EquityCurve'!$A$3:$A$174</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$148</f>
+              <f>'EquityCurve'!$B$2:$B$174</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B149"/>
+  <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +594,7 @@
         <v>40207</v>
       </c>
       <c r="B3" t="n">
-        <v>-7600.649500000002</v>
+        <v>-24083.89950000003</v>
       </c>
     </row>
     <row r="4">
@@ -602,7 +602,7 @@
         <v>40235</v>
       </c>
       <c r="B4" t="n">
-        <v>-1554.589500000017</v>
+        <v>-54920.33950000005</v>
       </c>
     </row>
     <row r="5">
@@ -610,7 +610,7 @@
         <v>40268</v>
       </c>
       <c r="B5" t="n">
-        <v>-6083.464500000009</v>
+        <v>-40432.21449999999</v>
       </c>
     </row>
     <row r="6">
@@ -618,7 +618,7 @@
         <v>40298</v>
       </c>
       <c r="B6" t="n">
-        <v>-8060.139500000009</v>
+        <v>-39654.78950000001</v>
       </c>
     </row>
     <row r="7">
@@ -626,7 +626,7 @@
         <v>40326</v>
       </c>
       <c r="B7" t="n">
-        <v>2118.662999999979</v>
+        <v>-42091.18699999999</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>40359</v>
       </c>
       <c r="B8" t="n">
-        <v>9651.475999999959</v>
+        <v>-30341.52400000004</v>
       </c>
     </row>
     <row r="9">
@@ -642,7 +642,7 @@
         <v>40389</v>
       </c>
       <c r="B9" t="n">
-        <v>15981.163</v>
+        <v>-25901.68699999998</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         <v>40421</v>
       </c>
       <c r="B10" t="n">
-        <v>23942.10099999998</v>
+        <v>-24663.64899999997</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         <v>40451</v>
       </c>
       <c r="B11" t="n">
-        <v>31679.60100000002</v>
+        <v>25118.75100000009</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
         <v>40480</v>
       </c>
       <c r="B12" t="n">
-        <v>38741.73800000002</v>
+        <v>85758.93800000007</v>
       </c>
     </row>
     <row r="13">
@@ -674,7 +674,7 @@
         <v>40512</v>
       </c>
       <c r="B13" t="n">
-        <v>21925.51050000002</v>
+        <v>64450.76050000005</v>
       </c>
     </row>
     <row r="14">
@@ -682,7 +682,7 @@
         <v>40543</v>
       </c>
       <c r="B14" t="n">
-        <v>20523.94749999999</v>
+        <v>147454.5975</v>
       </c>
     </row>
     <row r="15">
@@ -690,7 +690,7 @@
         <v>40574</v>
       </c>
       <c r="B15" t="n">
-        <v>13790.55299999999</v>
+        <v>138799.003</v>
       </c>
     </row>
     <row r="16">
@@ -698,7 +698,7 @@
         <v>40602</v>
       </c>
       <c r="B16" t="n">
-        <v>12828.56799999999</v>
+        <v>161202.468</v>
       </c>
     </row>
     <row r="17">
@@ -706,7 +706,7 @@
         <v>40633</v>
       </c>
       <c r="B17" t="n">
-        <v>10274.69799999996</v>
+        <v>173849.8479999999</v>
       </c>
     </row>
     <row r="18">
@@ -714,7 +714,7 @@
         <v>40662</v>
       </c>
       <c r="B18" t="n">
-        <v>19271.20599999997</v>
+        <v>259966.656</v>
       </c>
     </row>
     <row r="19">
@@ -722,7 +722,7 @@
         <v>40694</v>
       </c>
       <c r="B19" t="n">
-        <v>13527.45599999994</v>
+        <v>97193.30599999989</v>
       </c>
     </row>
     <row r="20">
@@ -730,7 +730,7 @@
         <v>40724</v>
       </c>
       <c r="B20" t="n">
-        <v>6195.792999999934</v>
+        <v>100282.0429999999</v>
       </c>
     </row>
     <row r="21">
@@ -738,7 +738,7 @@
         <v>40753</v>
       </c>
       <c r="B21" t="n">
-        <v>14141.86799999997</v>
+        <v>95376.3679999999</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>40786</v>
       </c>
       <c r="B22" t="n">
-        <v>23179.36799999999</v>
+        <v>109622.8179999999</v>
       </c>
     </row>
     <row r="23">
@@ -754,7 +754,7 @@
         <v>40816</v>
       </c>
       <c r="B23" t="n">
-        <v>38341.86799999998</v>
+        <v>169644.3179999999</v>
       </c>
     </row>
     <row r="24">
@@ -762,7 +762,7 @@
         <v>40847</v>
       </c>
       <c r="B24" t="n">
-        <v>14987.91800000004</v>
+        <v>58810.76799999994</v>
       </c>
     </row>
     <row r="25">
@@ -770,7 +770,7 @@
         <v>40877</v>
       </c>
       <c r="B25" t="n">
-        <v>4444.568000000032</v>
+        <v>62001.76799999991</v>
       </c>
     </row>
     <row r="26">
@@ -778,7 +778,7 @@
         <v>40907</v>
       </c>
       <c r="B26" t="n">
-        <v>8767.751000000033</v>
+        <v>95160.40099999987</v>
       </c>
     </row>
     <row r="27">
@@ -786,7 +786,7 @@
         <v>40939</v>
       </c>
       <c r="B27" t="n">
-        <v>3868.813000000042</v>
+        <v>45198.56299999992</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         <v>40968</v>
       </c>
       <c r="B28" t="n">
-        <v>3324.545500000066</v>
+        <v>70133.19549999997</v>
       </c>
     </row>
     <row r="29">
@@ -802,7 +802,7 @@
         <v>40998</v>
       </c>
       <c r="B29" t="n">
-        <v>3423.993000000068</v>
+        <v>49068.24299999997</v>
       </c>
     </row>
     <row r="30">
@@ -810,7 +810,7 @@
         <v>41029</v>
       </c>
       <c r="B30" t="n">
-        <v>-5216.358999999942</v>
+        <v>33685.89099999998</v>
       </c>
     </row>
     <row r="31">
@@ -818,7 +818,7 @@
         <v>41060</v>
       </c>
       <c r="B31" t="n">
-        <v>16122.70300000009</v>
+        <v>121084.253</v>
       </c>
     </row>
     <row r="32">
@@ -826,7 +826,7 @@
         <v>41089</v>
       </c>
       <c r="B32" t="n">
-        <v>4172.703000000052</v>
+        <v>73051.55299999996</v>
       </c>
     </row>
     <row r="33">
@@ -834,7 +834,7 @@
         <v>41121</v>
       </c>
       <c r="B33" t="n">
-        <v>12460.20300000004</v>
+        <v>93382.10299999997</v>
       </c>
     </row>
     <row r="34">
@@ -842,7 +842,7 @@
         <v>41152</v>
       </c>
       <c r="B34" t="n">
-        <v>1864.828500000054</v>
+        <v>114566.5285</v>
       </c>
     </row>
     <row r="35">
@@ -850,7 +850,7 @@
         <v>41180</v>
       </c>
       <c r="B35" t="n">
-        <v>149.2560000000449</v>
+        <v>124023.0559999999</v>
       </c>
     </row>
     <row r="36">
@@ -858,7 +858,7 @@
         <v>41213</v>
       </c>
       <c r="B36" t="n">
-        <v>-2916.894499999951</v>
+        <v>89201.60549999998</v>
       </c>
     </row>
     <row r="37">
@@ -866,7 +866,7 @@
         <v>41243</v>
       </c>
       <c r="B37" t="n">
-        <v>-1120.271999999924</v>
+        <v>67965.22799999999</v>
       </c>
     </row>
     <row r="38">
@@ -874,7 +874,7 @@
         <v>41274</v>
       </c>
       <c r="B38" t="n">
-        <v>-1648.011999999901</v>
+        <v>78184.28800000003</v>
       </c>
     </row>
     <row r="39">
@@ -882,7 +882,7 @@
         <v>41305</v>
       </c>
       <c r="B39" t="n">
-        <v>12124.65300000011</v>
+        <v>85661.45300000004</v>
       </c>
     </row>
     <row r="40">
@@ -890,7 +890,7 @@
         <v>41333</v>
       </c>
       <c r="B40" t="n">
-        <v>9984.615500000144</v>
+        <v>91280.06550000011</v>
       </c>
     </row>
     <row r="41">
@@ -898,7 +898,7 @@
         <v>41362</v>
       </c>
       <c r="B41" t="n">
-        <v>12025.16350000015</v>
+        <v>101340.5635</v>
       </c>
     </row>
     <row r="42">
@@ -906,7 +906,7 @@
         <v>41394</v>
       </c>
       <c r="B42" t="n">
-        <v>16329.15050000013</v>
+        <v>143860.2505000001</v>
       </c>
     </row>
     <row r="43">
@@ -914,7 +914,7 @@
         <v>41425</v>
       </c>
       <c r="B43" t="n">
-        <v>15394.35800000015</v>
+        <v>146406.7080000001</v>
       </c>
     </row>
     <row r="44">
@@ -922,7 +922,7 @@
         <v>41453</v>
       </c>
       <c r="B44" t="n">
-        <v>10667.79500000014</v>
+        <v>154206.3950000001</v>
       </c>
     </row>
     <row r="45">
@@ -930,7 +930,7 @@
         <v>41486</v>
       </c>
       <c r="B45" t="n">
-        <v>8853.733000000129</v>
+        <v>149757.8830000001</v>
       </c>
     </row>
     <row r="46">
@@ -938,7 +938,7 @@
         <v>41516</v>
       </c>
       <c r="B46" t="n">
-        <v>6699.045000000115</v>
+        <v>144168.595</v>
       </c>
     </row>
     <row r="47">
@@ -946,7 +946,7 @@
         <v>41547</v>
       </c>
       <c r="B47" t="n">
-        <v>12545.70300000013</v>
+        <v>118953.4530000001</v>
       </c>
     </row>
     <row r="48">
@@ -954,7 +954,7 @@
         <v>41578</v>
       </c>
       <c r="B48" t="n">
-        <v>15035.32800000011</v>
+        <v>122917.378</v>
       </c>
     </row>
     <row r="49">
@@ -962,7 +962,7 @@
         <v>41607</v>
       </c>
       <c r="B49" t="n">
-        <v>11055.3780000001</v>
+        <v>125474.028</v>
       </c>
     </row>
     <row r="50">
@@ -970,7 +970,7 @@
         <v>41639</v>
       </c>
       <c r="B50" t="n">
-        <v>15388.62600000009</v>
+        <v>132796.276</v>
       </c>
     </row>
     <row r="51">
@@ -978,7 +978,7 @@
         <v>41670</v>
       </c>
       <c r="B51" t="n">
-        <v>5100.378500000093</v>
+        <v>113996.5285</v>
       </c>
     </row>
     <row r="52">
@@ -986,7 +986,7 @@
         <v>41698</v>
       </c>
       <c r="B52" t="n">
-        <v>5789.211000000107</v>
+        <v>151147.811</v>
       </c>
     </row>
     <row r="53">
@@ -994,7 +994,7 @@
         <v>41729</v>
       </c>
       <c r="B53" t="n">
-        <v>-2526.87899999995</v>
+        <v>139038.521</v>
       </c>
     </row>
     <row r="54">
@@ -1002,7 +1002,7 @@
         <v>41759</v>
       </c>
       <c r="B54" t="n">
-        <v>-3072.876499999951</v>
+        <v>143197.9735</v>
       </c>
     </row>
     <row r="55">
@@ -1010,7 +1010,7 @@
         <v>41789</v>
       </c>
       <c r="B55" t="n">
-        <v>-522.7564999999304</v>
+        <v>112507.3435</v>
       </c>
     </row>
     <row r="56">
@@ -1018,7 +1018,7 @@
         <v>41820</v>
       </c>
       <c r="B56" t="n">
-        <v>-5772.578999999994</v>
+        <v>97077.17099999991</v>
       </c>
     </row>
     <row r="57">
@@ -1026,7 +1026,7 @@
         <v>41851</v>
       </c>
       <c r="B57" t="n">
-        <v>-7505.861499999944</v>
+        <v>95916.73850000008</v>
       </c>
     </row>
     <row r="58">
@@ -1034,7 +1034,7 @@
         <v>41880</v>
       </c>
       <c r="B58" t="n">
-        <v>1589.61400000006</v>
+        <v>87601.16399999986</v>
       </c>
     </row>
     <row r="59">
@@ -1042,7 +1042,7 @@
         <v>41912</v>
       </c>
       <c r="B59" t="n">
-        <v>9878.191000000079</v>
+        <v>124643.4909999999</v>
       </c>
     </row>
     <row r="60">
@@ -1050,7 +1050,7 @@
         <v>41943</v>
       </c>
       <c r="B60" t="n">
-        <v>17821.76150000009</v>
+        <v>116202.5114999998</v>
       </c>
     </row>
     <row r="61">
@@ -1058,7 +1058,7 @@
         <v>41971</v>
       </c>
       <c r="B61" t="n">
-        <v>32417.07350000009</v>
+        <v>201209.8234999999</v>
       </c>
     </row>
     <row r="62">
@@ -1066,7 +1066,7 @@
         <v>42004</v>
       </c>
       <c r="B62" t="n">
-        <v>35846.96600000007</v>
+        <v>188516.0159999995</v>
       </c>
     </row>
     <row r="63">
@@ -1074,7 +1074,7 @@
         <v>42034</v>
       </c>
       <c r="B63" t="n">
-        <v>57284.77900000011</v>
+        <v>145073.1289999996</v>
       </c>
     </row>
     <row r="64">
@@ -1082,7 +1082,7 @@
         <v>42062</v>
       </c>
       <c r="B64" t="n">
-        <v>45742.72100000011</v>
+        <v>74234.82099999959</v>
       </c>
     </row>
     <row r="65">
@@ -1090,7 +1090,7 @@
         <v>42094</v>
       </c>
       <c r="B65" t="n">
-        <v>43240.12850000009</v>
+        <v>743.0284999994619</v>
       </c>
     </row>
     <row r="66">
@@ -1098,7 +1098,7 @@
         <v>42124</v>
       </c>
       <c r="B66" t="n">
-        <v>33217.70350000009</v>
+        <v>-22359.79650000058</v>
       </c>
     </row>
     <row r="67">
@@ -1106,7 +1106,7 @@
         <v>42153</v>
       </c>
       <c r="B67" t="n">
-        <v>31428.5135000001</v>
+        <v>-74123.83650000049</v>
       </c>
     </row>
     <row r="68">
@@ -1114,7 +1114,7 @@
         <v>42185</v>
       </c>
       <c r="B68" t="n">
-        <v>33777.15600000011</v>
+        <v>-89322.54400000024</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         <v>42216</v>
       </c>
       <c r="B69" t="n">
-        <v>22850.13100000014</v>
+        <v>-124568.4190000001</v>
       </c>
     </row>
     <row r="70">
@@ -1130,7 +1130,7 @@
         <v>42247</v>
       </c>
       <c r="B70" t="n">
-        <v>17617.59350000014</v>
+        <v>-38063.3065</v>
       </c>
     </row>
     <row r="71">
@@ -1138,7 +1138,7 @@
         <v>42277</v>
       </c>
       <c r="B71" t="n">
-        <v>12859.62850000011</v>
+        <v>-13575.12150000003</v>
       </c>
     </row>
     <row r="72">
@@ -1146,7 +1146,7 @@
         <v>42307</v>
       </c>
       <c r="B72" t="n">
-        <v>4491.118500000148</v>
+        <v>-76167.63149999984</v>
       </c>
     </row>
     <row r="73">
@@ -1154,7 +1154,7 @@
         <v>42338</v>
       </c>
       <c r="B73" t="n">
-        <v>6369.045500000158</v>
+        <v>-50098.4544999999</v>
       </c>
     </row>
     <row r="74">
@@ -1162,7 +1162,7 @@
         <v>42369</v>
       </c>
       <c r="B74" t="n">
-        <v>-1522.814499999826</v>
+        <v>-146669.1144999999</v>
       </c>
     </row>
     <row r="75">
@@ -1170,7 +1170,7 @@
         <v>42398</v>
       </c>
       <c r="B75" t="n">
-        <v>3118.51350000017</v>
+        <v>-75991.33649999999</v>
       </c>
     </row>
     <row r="76">
@@ -1178,7 +1178,7 @@
         <v>42429</v>
       </c>
       <c r="B76" t="n">
-        <v>15912.26350000014</v>
+        <v>-81020.88650000007</v>
       </c>
     </row>
     <row r="77">
@@ -1186,7 +1186,7 @@
         <v>42460</v>
       </c>
       <c r="B77" t="n">
-        <v>11922.77400000014</v>
+        <v>-41796.626</v>
       </c>
     </row>
     <row r="78">
@@ -1194,7 +1194,7 @@
         <v>42489</v>
       </c>
       <c r="B78" t="n">
-        <v>16251.57100000014</v>
+        <v>-18356.62900000001</v>
       </c>
     </row>
     <row r="79">
@@ -1202,7 +1202,7 @@
         <v>42521</v>
       </c>
       <c r="B79" t="n">
-        <v>7803.658500000129</v>
+        <v>-63549.1915000002</v>
       </c>
     </row>
     <row r="80">
@@ -1210,7 +1210,7 @@
         <v>42551</v>
       </c>
       <c r="B80" t="n">
-        <v>19209.57150000013</v>
+        <v>-190911.4284999999</v>
       </c>
     </row>
     <row r="81">
@@ -1218,7 +1218,7 @@
         <v>42580</v>
       </c>
       <c r="B81" t="n">
-        <v>17954.88350000011</v>
+        <v>-139656.2664999999</v>
       </c>
     </row>
     <row r="82">
@@ -1226,7 +1226,7 @@
         <v>42613</v>
       </c>
       <c r="B82" t="n">
-        <v>8908.721000000118</v>
+        <v>-172575.0289999998</v>
       </c>
     </row>
     <row r="83">
@@ -1234,7 +1234,7 @@
         <v>42643</v>
       </c>
       <c r="B83" t="n">
-        <v>3958.3035000001</v>
+        <v>-209286.1464999998</v>
       </c>
     </row>
     <row r="84">
@@ -1242,7 +1242,7 @@
         <v>42674</v>
       </c>
       <c r="B84" t="n">
-        <v>15631.55300000008</v>
+        <v>-211503.3969999999</v>
       </c>
     </row>
     <row r="85">
@@ -1250,7 +1250,7 @@
         <v>42704</v>
       </c>
       <c r="B85" t="n">
-        <v>35483.54100000014</v>
+        <v>-294992.1589999996</v>
       </c>
     </row>
     <row r="86">
@@ -1258,7 +1258,7 @@
         <v>42734</v>
       </c>
       <c r="B86" t="n">
-        <v>39166.35300000013</v>
+        <v>-217019.5969999997</v>
       </c>
     </row>
     <row r="87">
@@ -1266,7 +1266,7 @@
         <v>42766</v>
       </c>
       <c r="B87" t="n">
-        <v>26688.87800000015</v>
+        <v>-240548.3719999997</v>
       </c>
     </row>
     <row r="88">
@@ -1274,7 +1274,7 @@
         <v>42794</v>
       </c>
       <c r="B88" t="n">
-        <v>24890.41650000013</v>
+        <v>-128648.2334999998</v>
       </c>
     </row>
     <row r="89">
@@ -1282,7 +1282,7 @@
         <v>42825</v>
       </c>
       <c r="B89" t="n">
-        <v>14977.61850000013</v>
+        <v>-158684.3314999997</v>
       </c>
     </row>
     <row r="90">
@@ -1290,7 +1290,7 @@
         <v>42853</v>
       </c>
       <c r="B90" t="n">
-        <v>18279.30400000013</v>
+        <v>-164776.3459999998</v>
       </c>
     </row>
     <row r="91">
@@ -1298,7 +1298,7 @@
         <v>42886</v>
       </c>
       <c r="B91" t="n">
-        <v>20553.44100000012</v>
+        <v>-190267.4589999998</v>
       </c>
     </row>
     <row r="92">
@@ -1306,7 +1306,7 @@
         <v>42916</v>
       </c>
       <c r="B92" t="n">
-        <v>18902.43600000017</v>
+        <v>-156267.7139999997</v>
       </c>
     </row>
     <row r="93">
@@ -1314,7 +1314,7 @@
         <v>42947</v>
       </c>
       <c r="B93" t="n">
-        <v>20114.65100000014</v>
+        <v>-97619.19899999973</v>
       </c>
     </row>
     <row r="94">
@@ -1322,7 +1322,7 @@
         <v>42978</v>
       </c>
       <c r="B94" t="n">
-        <v>19976.94400000015</v>
+        <v>-91888.40599999976</v>
       </c>
     </row>
     <row r="95">
@@ -1330,7 +1330,7 @@
         <v>43007</v>
       </c>
       <c r="B95" t="n">
-        <v>14933.93550000016</v>
+        <v>-72085.7644999997</v>
       </c>
     </row>
     <row r="96">
@@ -1338,7 +1338,7 @@
         <v>43039</v>
       </c>
       <c r="B96" t="n">
-        <v>12841.63550000018</v>
+        <v>30968.08550000034</v>
       </c>
     </row>
     <row r="97">
@@ -1346,7 +1346,7 @@
         <v>43069</v>
       </c>
       <c r="B97" t="n">
-        <v>8953.835500000152</v>
+        <v>121328.4855000003</v>
       </c>
     </row>
     <row r="98">
@@ -1354,7 +1354,7 @@
         <v>43098</v>
       </c>
       <c r="B98" t="n">
-        <v>5439.273500000141</v>
+        <v>173337.7735000003</v>
       </c>
     </row>
     <row r="99">
@@ -1362,7 +1362,7 @@
         <v>43131</v>
       </c>
       <c r="B99" t="n">
-        <v>22355.59850000012</v>
+        <v>343398.8485000003</v>
       </c>
     </row>
     <row r="100">
@@ -1370,7 +1370,7 @@
         <v>43159</v>
       </c>
       <c r="B100" t="n">
-        <v>24127.47350000012</v>
+        <v>-17446.47649999953</v>
       </c>
     </row>
     <row r="101">
@@ -1378,7 +1378,7 @@
         <v>43188</v>
       </c>
       <c r="B101" t="n">
-        <v>17266.12600000012</v>
+        <v>-99992.57399999985</v>
       </c>
     </row>
     <row r="102">
@@ -1386,7 +1386,7 @@
         <v>43220</v>
       </c>
       <c r="B102" t="n">
-        <v>15025.56350000011</v>
+        <v>-125073.9364999999</v>
       </c>
     </row>
     <row r="103">
@@ -1394,7 +1394,7 @@
         <v>43251</v>
       </c>
       <c r="B103" t="n">
-        <v>19224.67850000011</v>
+        <v>-166027.4714999998</v>
       </c>
     </row>
     <row r="104">
@@ -1402,7 +1402,7 @@
         <v>43280</v>
       </c>
       <c r="B104" t="n">
-        <v>19402.7360000001</v>
+        <v>-238095.0639999998</v>
       </c>
     </row>
     <row r="105">
@@ -1410,7 +1410,7 @@
         <v>43312</v>
       </c>
       <c r="B105" t="n">
-        <v>18781.11100000011</v>
+        <v>-220513.7889999998</v>
       </c>
     </row>
     <row r="106">
@@ -1418,7 +1418,7 @@
         <v>43343</v>
       </c>
       <c r="B106" t="n">
-        <v>17838.1860000001</v>
+        <v>-130163.0639999998</v>
       </c>
     </row>
     <row r="107">
@@ -1426,7 +1426,7 @@
         <v>43371</v>
       </c>
       <c r="B107" t="n">
-        <v>18140.95550000011</v>
+        <v>-81009.64449999979</v>
       </c>
     </row>
     <row r="108">
@@ -1434,7 +1434,7 @@
         <v>43404</v>
       </c>
       <c r="B108" t="n">
-        <v>19610.48850000012</v>
+        <v>-107072.5114999998</v>
       </c>
     </row>
     <row r="109">
@@ -1442,7 +1442,7 @@
         <v>43434</v>
       </c>
       <c r="B109" t="n">
-        <v>17389.31650000011</v>
+        <v>-192849.4834999998</v>
       </c>
     </row>
     <row r="110">
@@ -1450,7 +1450,7 @@
         <v>43465</v>
       </c>
       <c r="B110" t="n">
-        <v>25928.12850000014</v>
+        <v>-21330.67149999974</v>
       </c>
     </row>
     <row r="111">
@@ -1458,7 +1458,7 @@
         <v>43496</v>
       </c>
       <c r="B111" t="n">
-        <v>27440.62850000014</v>
+        <v>-176905.1214999997</v>
       </c>
     </row>
     <row r="112">
@@ -1466,7 +1466,7 @@
         <v>43524</v>
       </c>
       <c r="B112" t="n">
-        <v>21079.1285000002</v>
+        <v>-112026.5714999996</v>
       </c>
     </row>
     <row r="113">
@@ -1474,7 +1474,7 @@
         <v>43553</v>
       </c>
       <c r="B113" t="n">
-        <v>22198.56600000018</v>
+        <v>-105771.5839999996</v>
       </c>
     </row>
     <row r="114">
@@ -1482,7 +1482,7 @@
         <v>43585</v>
       </c>
       <c r="B114" t="n">
-        <v>16446.37100000017</v>
+        <v>-21290.42899999965</v>
       </c>
     </row>
     <row r="115">
@@ -1490,7 +1490,7 @@
         <v>43616</v>
       </c>
       <c r="B115" t="n">
-        <v>27785.31400000017</v>
+        <v>-2412.435999999725</v>
       </c>
     </row>
     <row r="116">
@@ -1498,7 +1498,7 @@
         <v>43644</v>
       </c>
       <c r="B116" t="n">
-        <v>30361.87600000019</v>
+        <v>-127819.7239999997</v>
       </c>
     </row>
     <row r="117">
@@ -1506,7 +1506,7 @@
         <v>43677</v>
       </c>
       <c r="B117" t="n">
-        <v>31243.10350000018</v>
+        <v>-112634.1464999996</v>
       </c>
     </row>
     <row r="118">
@@ -1514,7 +1514,7 @@
         <v>43707</v>
       </c>
       <c r="B118" t="n">
-        <v>49336.67600000017</v>
+        <v>-288439.2239999998</v>
       </c>
     </row>
     <row r="119">
@@ -1522,7 +1522,7 @@
         <v>43738</v>
       </c>
       <c r="B119" t="n">
-        <v>34382.18350000018</v>
+        <v>-374386.3664999997</v>
       </c>
     </row>
     <row r="120">
@@ -1530,7 +1530,7 @@
         <v>43769</v>
       </c>
       <c r="B120" t="n">
-        <v>25187.83050000016</v>
+        <v>-497148.2194999994</v>
       </c>
     </row>
     <row r="121">
@@ -1538,7 +1538,7 @@
         <v>43798</v>
       </c>
       <c r="B121" t="n">
-        <v>28938.89350000017</v>
+        <v>-394372.8564999998</v>
       </c>
     </row>
     <row r="122">
@@ -1546,7 +1546,7 @@
         <v>43830</v>
       </c>
       <c r="B122" t="n">
-        <v>29132.27600000019</v>
+        <v>-334994.8239999997</v>
       </c>
     </row>
     <row r="123">
@@ -1554,7 +1554,7 @@
         <v>43861</v>
       </c>
       <c r="B123" t="n">
-        <v>26324.37650000021</v>
+        <v>-342568.4234999996</v>
       </c>
     </row>
     <row r="124">
@@ -1562,7 +1562,7 @@
         <v>43889</v>
       </c>
       <c r="B124" t="n">
-        <v>39300.93850000022</v>
+        <v>-57846.96149999963</v>
       </c>
     </row>
     <row r="125">
@@ -1570,7 +1570,7 @@
         <v>43921</v>
       </c>
       <c r="B125" t="n">
-        <v>46116.56350000027</v>
+        <v>369428.9635000004</v>
       </c>
     </row>
     <row r="126">
@@ -1578,7 +1578,7 @@
         <v>43951</v>
       </c>
       <c r="B126" t="n">
-        <v>46835.31350000025</v>
+        <v>67915.01350000047</v>
       </c>
     </row>
     <row r="127">
@@ -1586,7 +1586,7 @@
         <v>43980</v>
       </c>
       <c r="B127" t="n">
-        <v>42332.93850000027</v>
+        <v>63089.4885000006</v>
       </c>
     </row>
     <row r="128">
@@ -1594,7 +1594,7 @@
         <v>44012</v>
       </c>
       <c r="B128" t="n">
-        <v>32108.62150000024</v>
+        <v>115820.0715000006</v>
       </c>
     </row>
     <row r="129">
@@ -1602,7 +1602,7 @@
         <v>44043</v>
       </c>
       <c r="B129" t="n">
-        <v>43364.03350000024</v>
+        <v>262272.9835000006</v>
       </c>
     </row>
     <row r="130">
@@ -1610,7 +1610,7 @@
         <v>44074</v>
       </c>
       <c r="B130" t="n">
-        <v>37469.81600000022</v>
+        <v>537740.1660000007</v>
       </c>
     </row>
     <row r="131">
@@ -1618,7 +1618,7 @@
         <v>44104</v>
       </c>
       <c r="B131" t="n">
-        <v>27332.21600000022</v>
+        <v>307424.9660000008</v>
       </c>
     </row>
     <row r="132">
@@ -1626,7 +1626,7 @@
         <v>44134</v>
       </c>
       <c r="B132" t="n">
-        <v>28578.79850000024</v>
+        <v>273178.9985000009</v>
       </c>
     </row>
     <row r="133">
@@ -1634,7 +1634,7 @@
         <v>44165</v>
       </c>
       <c r="B133" t="n">
-        <v>20018.06100000022</v>
+        <v>196026.261000001</v>
       </c>
     </row>
     <row r="134">
@@ -1642,7 +1642,7 @@
         <v>44196</v>
       </c>
       <c r="B134" t="n">
-        <v>27955.67350000023</v>
+        <v>327676.023500001</v>
       </c>
     </row>
     <row r="135">
@@ -1650,7 +1650,7 @@
         <v>44225</v>
       </c>
       <c r="B135" t="n">
-        <v>28653.73850000024</v>
+        <v>258142.1885000009</v>
       </c>
     </row>
     <row r="136">
@@ -1658,7 +1658,7 @@
         <v>44253</v>
       </c>
       <c r="B136" t="n">
-        <v>44090.86550000022</v>
+        <v>309722.2155000007</v>
       </c>
     </row>
     <row r="137">
@@ -1666,7 +1666,7 @@
         <v>44286</v>
       </c>
       <c r="B137" t="n">
-        <v>58067.42850000023</v>
+        <v>409951.1285000011</v>
       </c>
     </row>
     <row r="138">
@@ -1674,7 +1674,7 @@
         <v>44316</v>
       </c>
       <c r="B138" t="n">
-        <v>47522.11550000023</v>
+        <v>498609.965500001</v>
       </c>
     </row>
     <row r="139">
@@ -1682,7 +1682,7 @@
         <v>44344</v>
       </c>
       <c r="B139" t="n">
-        <v>45261.42600000024</v>
+        <v>584903.176000001</v>
       </c>
     </row>
     <row r="140">
@@ -1690,7 +1690,7 @@
         <v>44377</v>
       </c>
       <c r="B140" t="n">
-        <v>45376.36850000026</v>
+        <v>443511.8185000005</v>
       </c>
     </row>
     <row r="141">
@@ -1698,7 +1698,7 @@
         <v>44407</v>
       </c>
       <c r="B141" t="n">
-        <v>48217.94350000024</v>
+        <v>355293.9935000004</v>
       </c>
     </row>
     <row r="142">
@@ -1706,7 +1706,7 @@
         <v>44439</v>
       </c>
       <c r="B142" t="n">
-        <v>47589.19100000025</v>
+        <v>351365.4909999999</v>
       </c>
     </row>
     <row r="143">
@@ -1714,7 +1714,7 @@
         <v>44469</v>
       </c>
       <c r="B143" t="n">
-        <v>50033.72300000026</v>
+        <v>265958.3230000006</v>
       </c>
     </row>
     <row r="144">
@@ -1722,7 +1722,7 @@
         <v>44498</v>
       </c>
       <c r="B144" t="n">
-        <v>51438.41100000028</v>
+        <v>163984.6610000007</v>
       </c>
     </row>
     <row r="145">
@@ -1730,7 +1730,7 @@
         <v>44530</v>
       </c>
       <c r="B145" t="n">
-        <v>50608.68600000028</v>
+        <v>86876.68600000045</v>
       </c>
     </row>
     <row r="146">
@@ -1738,7 +1738,7 @@
         <v>44561</v>
       </c>
       <c r="B146" t="n">
-        <v>43994.14100000025</v>
+        <v>-125278.3589999996</v>
       </c>
     </row>
     <row r="147">
@@ -1746,7 +1746,7 @@
         <v>44592</v>
       </c>
       <c r="B147" t="n">
-        <v>44052.23550000025</v>
+        <v>-209094.3144999993</v>
       </c>
     </row>
     <row r="148">
@@ -1754,7 +1754,7 @@
         <v>44620</v>
       </c>
       <c r="B148" t="n">
-        <v>38256.92350000028</v>
+        <v>-191373.4764999994</v>
       </c>
     </row>
     <row r="149">
@@ -1762,7 +1762,215 @@
         <v>44651</v>
       </c>
       <c r="B149" t="n">
-        <v>52383.85600000031</v>
+        <v>-222366.8939999993</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-209336.8939999994</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-214126.8939999994</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B152" t="n">
+        <v>25318.10600000069</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B153" t="n">
+        <v>-97301.89399999971</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B154" t="n">
+        <v>-202926.8940000001</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B155" t="n">
+        <v>33188.10600000025</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B156" t="n">
+        <v>-234106.8939999998</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B157" t="n">
+        <v>-57751.89399999971</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B158" t="n">
+        <v>-230601.8939999997</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B159" t="n">
+        <v>-270981.8939999997</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B160" t="n">
+        <v>-268486.8939999996</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B161" t="n">
+        <v>-314321.8939999994</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B162" t="n">
+        <v>-313951.8939999994</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B163" t="n">
+        <v>-384816.8939999997</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B164" t="n">
+        <v>-430256.8939999999</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B165" t="n">
+        <v>-387306.8939999999</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B166" t="n">
+        <v>-526761.8939999996</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B167" t="n">
+        <v>-445886.8939999999</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B168" t="n">
+        <v>-391466.894</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B169" t="n">
+        <v>-401341.894</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B170" t="n">
+        <v>-220891.8940000001</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B171" t="n">
+        <v>-189716.8940000001</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B172" t="n">
+        <v>-96606.89400000012</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B173" t="n">
+        <v>-24171.89400000012</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B174" t="n">
+        <v>-93211.8939999998</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B175" t="n">
+        <v>-177111.8939999998</v>
       </c>
     </row>
   </sheetData>

--- a/TradingSimula_18-2022/TF-Keltner_1R.xlsx
+++ b/TradingSimula_18-2022/TF-Keltner_1R.xlsx
@@ -158,12 +158,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'EquityCurve'!$A$3:$A$174</f>
+              <f>'EquityCurve'!$A$3:$A$294</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'EquityCurve'!$B$2:$B$174</f>
+              <f>'EquityCurve'!$B$2:$B$294</f>
             </numRef>
           </val>
         </ser>
@@ -566,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:B295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,1386 +591,2346 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40207</v>
+        <v>36616</v>
       </c>
       <c r="B3" t="n">
-        <v>-24083.89950000003</v>
+        <v>1625.000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40235</v>
+        <v>36644</v>
       </c>
       <c r="B4" t="n">
-        <v>-54920.33950000005</v>
+        <v>7687.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>40268</v>
+        <v>36677</v>
       </c>
       <c r="B5" t="n">
-        <v>-40432.21449999999</v>
+        <v>3881.249999999997</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>40298</v>
+        <v>36707</v>
       </c>
       <c r="B6" t="n">
-        <v>-39654.78950000001</v>
+        <v>262.5000000000015</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>40326</v>
+        <v>36738</v>
       </c>
       <c r="B7" t="n">
-        <v>-42091.18699999999</v>
+        <v>-2818.749999999984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>40359</v>
+        <v>36769</v>
       </c>
       <c r="B8" t="n">
-        <v>-30341.52400000004</v>
+        <v>462.5000000000296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>40389</v>
+        <v>36798</v>
       </c>
       <c r="B9" t="n">
-        <v>-25901.68699999998</v>
+        <v>-2731.249999999971</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>40421</v>
+        <v>36830</v>
       </c>
       <c r="B10" t="n">
-        <v>-24663.64899999997</v>
+        <v>1593.750000000025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>40451</v>
+        <v>36860</v>
       </c>
       <c r="B11" t="n">
-        <v>25118.75100000009</v>
+        <v>-4331.249999999973</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>40480</v>
+        <v>36889</v>
       </c>
       <c r="B12" t="n">
-        <v>85758.93800000007</v>
+        <v>2962.500000000015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>40512</v>
+        <v>36922</v>
       </c>
       <c r="B13" t="n">
-        <v>64450.76050000005</v>
+        <v>1900.000000000021</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>40543</v>
+        <v>36950</v>
       </c>
       <c r="B14" t="n">
-        <v>147454.5975</v>
+        <v>-956.2499999999754</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>40574</v>
+        <v>36980</v>
       </c>
       <c r="B15" t="n">
-        <v>138799.003</v>
+        <v>2112.50000000002</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>40602</v>
+        <v>37011</v>
       </c>
       <c r="B16" t="n">
-        <v>161202.468</v>
+        <v>1100.00000000002</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>40633</v>
+        <v>37042</v>
       </c>
       <c r="B17" t="n">
-        <v>173849.8479999999</v>
+        <v>6325.000000000027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>40662</v>
+        <v>37071</v>
       </c>
       <c r="B18" t="n">
-        <v>259966.656</v>
+        <v>6037.500000000032</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>40694</v>
+        <v>37103</v>
       </c>
       <c r="B19" t="n">
-        <v>97193.30599999989</v>
+        <v>3143.750000000011</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>40724</v>
+        <v>37134</v>
       </c>
       <c r="B20" t="n">
-        <v>100282.0429999999</v>
+        <v>7581.250000000008</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>40753</v>
+        <v>37162</v>
       </c>
       <c r="B21" t="n">
-        <v>95376.3679999999</v>
+        <v>7418.750000000013</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>40786</v>
+        <v>37195</v>
       </c>
       <c r="B22" t="n">
-        <v>109622.8179999999</v>
+        <v>6200.000000000016</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>40816</v>
+        <v>37225</v>
       </c>
       <c r="B23" t="n">
-        <v>169644.3179999999</v>
+        <v>5243.750000000025</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>40847</v>
+        <v>37256</v>
       </c>
       <c r="B24" t="n">
-        <v>58810.76799999994</v>
+        <v>3762.500000000015</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>40877</v>
+        <v>37287</v>
       </c>
       <c r="B25" t="n">
-        <v>62001.76799999991</v>
+        <v>4468.750000000015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>40907</v>
+        <v>37315</v>
       </c>
       <c r="B26" t="n">
-        <v>95160.40099999987</v>
+        <v>3043.75000000002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>40939</v>
+        <v>37343</v>
       </c>
       <c r="B27" t="n">
-        <v>45198.56299999992</v>
+        <v>1656.250000000015</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>40968</v>
+        <v>37376</v>
       </c>
       <c r="B28" t="n">
-        <v>70133.19549999997</v>
+        <v>3187.500000000013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>40998</v>
+        <v>37407</v>
       </c>
       <c r="B29" t="n">
-        <v>49068.24299999997</v>
+        <v>7275.000000000006</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41029</v>
+        <v>37435</v>
       </c>
       <c r="B30" t="n">
-        <v>33685.89099999998</v>
+        <v>14375.00000000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41060</v>
+        <v>37468</v>
       </c>
       <c r="B31" t="n">
-        <v>121084.253</v>
+        <v>12675.00000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41089</v>
+        <v>37498</v>
       </c>
       <c r="B32" t="n">
-        <v>73051.55299999996</v>
+        <v>12281.25000000002</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41121</v>
+        <v>37529</v>
       </c>
       <c r="B33" t="n">
-        <v>93382.10299999997</v>
+        <v>9406.250000000024</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41152</v>
+        <v>37560</v>
       </c>
       <c r="B34" t="n">
-        <v>114566.5285</v>
+        <v>9406.250000000024</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41180</v>
+        <v>37589</v>
       </c>
       <c r="B35" t="n">
-        <v>124023.0559999999</v>
+        <v>9112.500000000029</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41213</v>
+        <v>37621</v>
       </c>
       <c r="B36" t="n">
-        <v>89201.60549999998</v>
+        <v>15812.50000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41243</v>
+        <v>37652</v>
       </c>
       <c r="B37" t="n">
-        <v>67965.22799999999</v>
+        <v>19125.00000000004</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41274</v>
+        <v>37680</v>
       </c>
       <c r="B38" t="n">
-        <v>78184.28800000003</v>
+        <v>19862.50000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41305</v>
+        <v>37711</v>
       </c>
       <c r="B39" t="n">
-        <v>85661.45300000004</v>
+        <v>15218.75000000002</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41333</v>
+        <v>37741</v>
       </c>
       <c r="B40" t="n">
-        <v>91280.06550000011</v>
+        <v>17268.75000000002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41362</v>
+        <v>37771</v>
       </c>
       <c r="B41" t="n">
-        <v>101340.5635</v>
+        <v>25068.75000000002</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41394</v>
+        <v>37802</v>
       </c>
       <c r="B42" t="n">
-        <v>143860.2505000001</v>
+        <v>21143.75000000004</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41425</v>
+        <v>37833</v>
       </c>
       <c r="B43" t="n">
-        <v>146406.7080000001</v>
+        <v>17343.75</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>41453</v>
+        <v>37862</v>
       </c>
       <c r="B44" t="n">
-        <v>154206.3950000001</v>
+        <v>20593.75000000001</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>41486</v>
+        <v>37894</v>
       </c>
       <c r="B45" t="n">
-        <v>149757.8830000001</v>
+        <v>18700</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>41516</v>
+        <v>37925</v>
       </c>
       <c r="B46" t="n">
-        <v>144168.595</v>
+        <v>17937.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>41547</v>
+        <v>37953</v>
       </c>
       <c r="B47" t="n">
-        <v>118953.4530000001</v>
+        <v>19987.49999999999</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>41578</v>
+        <v>37986</v>
       </c>
       <c r="B48" t="n">
-        <v>122917.378</v>
+        <v>26862.50000000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>41607</v>
+        <v>38016</v>
       </c>
       <c r="B49" t="n">
-        <v>125474.028</v>
+        <v>25787.49999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>41639</v>
+        <v>38044</v>
       </c>
       <c r="B50" t="n">
-        <v>132796.276</v>
+        <v>25700</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>41670</v>
+        <v>38077</v>
       </c>
       <c r="B51" t="n">
-        <v>113996.5285</v>
+        <v>25062.50000000001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>41698</v>
+        <v>38107</v>
       </c>
       <c r="B52" t="n">
-        <v>151147.811</v>
+        <v>28950</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>41729</v>
+        <v>38135</v>
       </c>
       <c r="B53" t="n">
-        <v>139038.521</v>
+        <v>27581.25000000002</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>41759</v>
+        <v>38168</v>
       </c>
       <c r="B54" t="n">
-        <v>143197.9735</v>
+        <v>24081.25000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>41789</v>
+        <v>38198</v>
       </c>
       <c r="B55" t="n">
-        <v>112507.3435</v>
+        <v>21956.25000000002</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>41820</v>
+        <v>38230</v>
       </c>
       <c r="B56" t="n">
-        <v>97077.17099999991</v>
+        <v>21956.25000000002</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>41851</v>
+        <v>38260</v>
       </c>
       <c r="B57" t="n">
-        <v>95916.73850000008</v>
+        <v>22175.00000000004</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>41880</v>
+        <v>38289</v>
       </c>
       <c r="B58" t="n">
-        <v>87601.16399999986</v>
+        <v>26612.50000000002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>41912</v>
+        <v>38321</v>
       </c>
       <c r="B59" t="n">
-        <v>124643.4909999999</v>
+        <v>32925.00000000002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>41943</v>
+        <v>38352</v>
       </c>
       <c r="B60" t="n">
-        <v>116202.5114999998</v>
+        <v>36250.00000000001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>41971</v>
+        <v>38383</v>
       </c>
       <c r="B61" t="n">
-        <v>201209.8234999999</v>
+        <v>30056.25000000004</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42004</v>
+        <v>38411</v>
       </c>
       <c r="B62" t="n">
-        <v>188516.0159999995</v>
+        <v>27031.25000000004</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42034</v>
+        <v>38442</v>
       </c>
       <c r="B63" t="n">
-        <v>145073.1289999996</v>
+        <v>23381.25000000004</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42062</v>
+        <v>38471</v>
       </c>
       <c r="B64" t="n">
-        <v>74234.82099999959</v>
+        <v>22212.50000000004</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42094</v>
+        <v>38503</v>
       </c>
       <c r="B65" t="n">
-        <v>743.0284999994619</v>
+        <v>28937.50000000005</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42124</v>
+        <v>38533</v>
       </c>
       <c r="B66" t="n">
-        <v>-22359.79650000058</v>
+        <v>31050.00000000004</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42153</v>
+        <v>38562</v>
       </c>
       <c r="B67" t="n">
-        <v>-74123.83650000049</v>
+        <v>30875.00000000003</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42185</v>
+        <v>38595</v>
       </c>
       <c r="B68" t="n">
-        <v>-89322.54400000024</v>
+        <v>26043.75000000004</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42216</v>
+        <v>38625</v>
       </c>
       <c r="B69" t="n">
-        <v>-124568.4190000001</v>
+        <v>23568.75000000003</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42247</v>
+        <v>38656</v>
       </c>
       <c r="B70" t="n">
-        <v>-38063.3065</v>
+        <v>20843.75000000004</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42277</v>
+        <v>38686</v>
       </c>
       <c r="B71" t="n">
-        <v>-13575.12150000003</v>
+        <v>23581.25000000005</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42307</v>
+        <v>38716</v>
       </c>
       <c r="B72" t="n">
-        <v>-76167.63149999984</v>
+        <v>21431.25000000003</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42338</v>
+        <v>38748</v>
       </c>
       <c r="B73" t="n">
-        <v>-50098.4544999999</v>
+        <v>21700.00000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42369</v>
+        <v>38776</v>
       </c>
       <c r="B74" t="n">
-        <v>-146669.1144999999</v>
+        <v>19000.00000000003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42398</v>
+        <v>38807</v>
       </c>
       <c r="B75" t="n">
-        <v>-75991.33649999999</v>
+        <v>16781.25000000003</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42429</v>
+        <v>38835</v>
       </c>
       <c r="B76" t="n">
-        <v>-81020.88650000007</v>
+        <v>21712.50000000003</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42460</v>
+        <v>38868</v>
       </c>
       <c r="B77" t="n">
-        <v>-41796.626</v>
+        <v>23862.50000000001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42489</v>
+        <v>38898</v>
       </c>
       <c r="B78" t="n">
-        <v>-18356.62900000001</v>
+        <v>20943.75000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42521</v>
+        <v>38929</v>
       </c>
       <c r="B79" t="n">
-        <v>-63549.1915000002</v>
+        <v>16056.25000000004</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42551</v>
+        <v>38960</v>
       </c>
       <c r="B80" t="n">
-        <v>-190911.4284999999</v>
+        <v>13500.00000000003</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42580</v>
+        <v>38989</v>
       </c>
       <c r="B81" t="n">
-        <v>-139656.2664999999</v>
+        <v>13500.00000000003</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42613</v>
+        <v>39021</v>
       </c>
       <c r="B82" t="n">
-        <v>-172575.0289999998</v>
+        <v>11443.75000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42643</v>
+        <v>39051</v>
       </c>
       <c r="B83" t="n">
-        <v>-209286.1464999998</v>
+        <v>15906.25000000002</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42674</v>
+        <v>39080</v>
       </c>
       <c r="B84" t="n">
-        <v>-211503.3969999999</v>
+        <v>15606.25000000003</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42704</v>
+        <v>39113</v>
       </c>
       <c r="B85" t="n">
-        <v>-294992.1589999996</v>
+        <v>12387.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42734</v>
+        <v>39141</v>
       </c>
       <c r="B86" t="n">
-        <v>-217019.5969999997</v>
+        <v>12387.5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42766</v>
+        <v>39171</v>
       </c>
       <c r="B87" t="n">
-        <v>-240548.3719999997</v>
+        <v>13981.25000000001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42794</v>
+        <v>39202</v>
       </c>
       <c r="B88" t="n">
-        <v>-128648.2334999998</v>
+        <v>17506.25000000001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42825</v>
+        <v>39233</v>
       </c>
       <c r="B89" t="n">
-        <v>-158684.3314999997</v>
+        <v>14525.00000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42853</v>
+        <v>39262</v>
       </c>
       <c r="B90" t="n">
-        <v>-164776.3459999998</v>
+        <v>12624.99999999999</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42886</v>
+        <v>39294</v>
       </c>
       <c r="B91" t="n">
-        <v>-190267.4589999998</v>
+        <v>13412.49999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42916</v>
+        <v>39325</v>
       </c>
       <c r="B92" t="n">
-        <v>-156267.7139999997</v>
+        <v>10024.99999999999</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42947</v>
+        <v>39353</v>
       </c>
       <c r="B93" t="n">
-        <v>-97619.19899999973</v>
+        <v>16243.74999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42978</v>
+        <v>39386</v>
       </c>
       <c r="B94" t="n">
-        <v>-91888.40599999976</v>
+        <v>18956.24999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43007</v>
+        <v>39416</v>
       </c>
       <c r="B95" t="n">
-        <v>-72085.7644999997</v>
+        <v>20618.74999999997</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43039</v>
+        <v>39447</v>
       </c>
       <c r="B96" t="n">
-        <v>30968.08550000034</v>
+        <v>16468.74999999998</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43069</v>
+        <v>39478</v>
       </c>
       <c r="B97" t="n">
-        <v>121328.4855000003</v>
+        <v>13068.74999999998</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43098</v>
+        <v>39507</v>
       </c>
       <c r="B98" t="n">
-        <v>173337.7735000003</v>
+        <v>13381.24999999997</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43131</v>
+        <v>39538</v>
       </c>
       <c r="B99" t="n">
-        <v>343398.8485000003</v>
+        <v>20181.24999999997</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43159</v>
+        <v>39568</v>
       </c>
       <c r="B100" t="n">
-        <v>-17446.47649999953</v>
+        <v>18681.24999999997</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43188</v>
+        <v>39598</v>
       </c>
       <c r="B101" t="n">
-        <v>-99992.57399999985</v>
+        <v>15512.49999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43220</v>
+        <v>39629</v>
       </c>
       <c r="B102" t="n">
-        <v>-125073.9364999999</v>
+        <v>15512.49999999999</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43251</v>
+        <v>39660</v>
       </c>
       <c r="B103" t="n">
-        <v>-166027.4714999998</v>
+        <v>11737.49999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>43280</v>
+        <v>39689</v>
       </c>
       <c r="B104" t="n">
-        <v>-238095.0639999998</v>
+        <v>20462.5</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>43312</v>
+        <v>39721</v>
       </c>
       <c r="B105" t="n">
-        <v>-220513.7889999998</v>
+        <v>26675.00000000001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>43343</v>
+        <v>39752</v>
       </c>
       <c r="B106" t="n">
-        <v>-130163.0639999998</v>
+        <v>44087.50000000001</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>43371</v>
+        <v>39780</v>
       </c>
       <c r="B107" t="n">
-        <v>-81009.64449999979</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>43404</v>
+        <v>39813</v>
       </c>
       <c r="B108" t="n">
-        <v>-107072.5114999998</v>
+        <v>39731.24999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>43434</v>
+        <v>39843</v>
       </c>
       <c r="B109" t="n">
-        <v>-192849.4834999998</v>
+        <v>29993.75000000001</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>43465</v>
+        <v>39871</v>
       </c>
       <c r="B110" t="n">
-        <v>-21330.67149999974</v>
+        <v>29687.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>43496</v>
+        <v>39903</v>
       </c>
       <c r="B111" t="n">
-        <v>-176905.1214999997</v>
+        <v>20512.50000000001</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>43524</v>
+        <v>39933</v>
       </c>
       <c r="B112" t="n">
-        <v>-112026.5714999996</v>
+        <v>17118.75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>43553</v>
+        <v>39962</v>
       </c>
       <c r="B113" t="n">
-        <v>-105771.5839999996</v>
+        <v>25312.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>43585</v>
+        <v>39994</v>
       </c>
       <c r="B114" t="n">
-        <v>-21290.42899999965</v>
+        <v>24174.99999999999</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>43616</v>
+        <v>40025</v>
       </c>
       <c r="B115" t="n">
-        <v>-2412.435999999725</v>
+        <v>26850</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>43644</v>
+        <v>40056</v>
       </c>
       <c r="B116" t="n">
-        <v>-127819.7239999997</v>
+        <v>24587.49999999999</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>43677</v>
+        <v>40086</v>
       </c>
       <c r="B117" t="n">
-        <v>-112634.1464999996</v>
+        <v>27274.99999999997</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>43707</v>
+        <v>40116</v>
       </c>
       <c r="B118" t="n">
-        <v>-288439.2239999998</v>
+        <v>28287.49999999997</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>43738</v>
+        <v>40147</v>
       </c>
       <c r="B119" t="n">
-        <v>-374386.3664999997</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>43769</v>
+        <v>40178</v>
       </c>
       <c r="B120" t="n">
-        <v>-497148.2194999994</v>
+        <v>32200.00000000001</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>43798</v>
+        <v>40207</v>
       </c>
       <c r="B121" t="n">
-        <v>-394372.8564999998</v>
+        <v>38062.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>43830</v>
+        <v>40235</v>
       </c>
       <c r="B122" t="n">
-        <v>-334994.8239999997</v>
+        <v>41112.5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>43861</v>
+        <v>40268</v>
       </c>
       <c r="B123" t="n">
-        <v>-342568.4234999996</v>
+        <v>42500.00000000001</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>43889</v>
+        <v>40298</v>
       </c>
       <c r="B124" t="n">
-        <v>-57846.96149999963</v>
+        <v>40825.00000000002</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>43921</v>
+        <v>40326</v>
       </c>
       <c r="B125" t="n">
-        <v>369428.9635000004</v>
+        <v>53125.00000000003</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>43951</v>
+        <v>40359</v>
       </c>
       <c r="B126" t="n">
-        <v>67915.01350000047</v>
+        <v>54075.00000000001</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>43980</v>
+        <v>40389</v>
       </c>
       <c r="B127" t="n">
-        <v>63089.4885000006</v>
+        <v>50575.00000000003</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44012</v>
+        <v>40421</v>
       </c>
       <c r="B128" t="n">
-        <v>115820.0715000006</v>
+        <v>45193.75000000004</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44043</v>
+        <v>40451</v>
       </c>
       <c r="B129" t="n">
-        <v>262272.9835000006</v>
+        <v>52318.75000000004</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44074</v>
+        <v>40480</v>
       </c>
       <c r="B130" t="n">
-        <v>537740.1660000007</v>
+        <v>55493.75000000004</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44104</v>
+        <v>40512</v>
       </c>
       <c r="B131" t="n">
-        <v>307424.9660000008</v>
+        <v>53025.00000000005</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44134</v>
+        <v>40543</v>
       </c>
       <c r="B132" t="n">
-        <v>273178.9985000009</v>
+        <v>48587.50000000004</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>44165</v>
+        <v>40574</v>
       </c>
       <c r="B133" t="n">
-        <v>196026.261000001</v>
+        <v>46943.75000000004</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>44196</v>
+        <v>40602</v>
       </c>
       <c r="B134" t="n">
-        <v>327676.023500001</v>
+        <v>48356.25000000004</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>44225</v>
+        <v>40633</v>
       </c>
       <c r="B135" t="n">
-        <v>258142.1885000009</v>
+        <v>53106.25000000002</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>44253</v>
+        <v>40662</v>
       </c>
       <c r="B136" t="n">
-        <v>309722.2155000007</v>
+        <v>61093.75000000003</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>44286</v>
+        <v>40694</v>
       </c>
       <c r="B137" t="n">
-        <v>409951.1285000011</v>
+        <v>52868.75000000004</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>44316</v>
+        <v>40724</v>
       </c>
       <c r="B138" t="n">
-        <v>498609.965500001</v>
+        <v>45725.00000000009</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>44344</v>
+        <v>40753</v>
       </c>
       <c r="B139" t="n">
-        <v>584903.176000001</v>
+        <v>42068.75000000011</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>44377</v>
+        <v>40786</v>
       </c>
       <c r="B140" t="n">
-        <v>443511.8185000005</v>
+        <v>42068.75000000011</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>44407</v>
+        <v>40816</v>
       </c>
       <c r="B141" t="n">
-        <v>355293.9935000004</v>
+        <v>48525.0000000001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>44439</v>
+        <v>40847</v>
       </c>
       <c r="B142" t="n">
-        <v>351365.4909999999</v>
+        <v>41893.75000000009</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>44469</v>
+        <v>40877</v>
       </c>
       <c r="B143" t="n">
-        <v>265958.3230000006</v>
+        <v>40762.50000000012</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>44498</v>
+        <v>40907</v>
       </c>
       <c r="B144" t="n">
-        <v>163984.6610000007</v>
+        <v>46612.50000000012</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>44530</v>
+        <v>40939</v>
       </c>
       <c r="B145" t="n">
-        <v>86876.68600000045</v>
+        <v>45137.50000000011</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>44561</v>
+        <v>40968</v>
       </c>
       <c r="B146" t="n">
-        <v>-125278.3589999996</v>
+        <v>43087.50000000014</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>44592</v>
+        <v>40998</v>
       </c>
       <c r="B147" t="n">
-        <v>-209094.3144999993</v>
+        <v>39537.50000000014</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>44620</v>
+        <v>41029</v>
       </c>
       <c r="B148" t="n">
-        <v>-191373.4764999994</v>
+        <v>37062.50000000012</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>44651</v>
+        <v>41060</v>
       </c>
       <c r="B149" t="n">
-        <v>-222366.8939999993</v>
+        <v>44743.75000000012</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>44680</v>
+        <v>41089</v>
       </c>
       <c r="B150" t="n">
-        <v>-209336.8939999994</v>
+        <v>40993.75000000012</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>44712</v>
+        <v>41121</v>
       </c>
       <c r="B151" t="n">
-        <v>-214126.8939999994</v>
+        <v>45431.2500000001</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>44742</v>
+        <v>41152</v>
       </c>
       <c r="B152" t="n">
-        <v>25318.10600000069</v>
+        <v>43562.50000000009</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>44771</v>
+        <v>41180</v>
       </c>
       <c r="B153" t="n">
-        <v>-97301.89399999971</v>
+        <v>47062.5000000001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>44804</v>
+        <v>41213</v>
       </c>
       <c r="B154" t="n">
-        <v>-202926.8940000001</v>
+        <v>48375.00000000009</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>44834</v>
+        <v>41243</v>
       </c>
       <c r="B155" t="n">
-        <v>33188.10600000025</v>
+        <v>46262.5000000001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>44865</v>
+        <v>41274</v>
       </c>
       <c r="B156" t="n">
-        <v>-234106.8939999998</v>
+        <v>45168.75000000009</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>44895</v>
+        <v>41305</v>
       </c>
       <c r="B157" t="n">
-        <v>-57751.89399999971</v>
+        <v>49793.75000000008</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>44925</v>
+        <v>41333</v>
       </c>
       <c r="B158" t="n">
-        <v>-230601.8939999997</v>
+        <v>45387.50000000013</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>44957</v>
+        <v>41361</v>
       </c>
       <c r="B159" t="n">
-        <v>-270981.8939999997</v>
+        <v>48412.50000000013</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>44985</v>
+        <v>41394</v>
       </c>
       <c r="B160" t="n">
-        <v>-268486.8939999996</v>
+        <v>44050.00000000014</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45016</v>
+        <v>41425</v>
       </c>
       <c r="B161" t="n">
-        <v>-314321.8939999994</v>
+        <v>44050.00000000014</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45044</v>
+        <v>41453</v>
       </c>
       <c r="B162" t="n">
-        <v>-313951.8939999994</v>
+        <v>42200.00000000017</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45077</v>
+        <v>41486</v>
       </c>
       <c r="B163" t="n">
-        <v>-384816.8939999997</v>
+        <v>40087.50000000017</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45107</v>
+        <v>41516</v>
       </c>
       <c r="B164" t="n">
-        <v>-430256.8939999999</v>
+        <v>38450.00000000018</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45138</v>
+        <v>41547</v>
       </c>
       <c r="B165" t="n">
-        <v>-387306.8939999999</v>
+        <v>40093.75000000018</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45169</v>
+        <v>41578</v>
       </c>
       <c r="B166" t="n">
-        <v>-526761.8939999996</v>
+        <v>40906.25000000017</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45198</v>
+        <v>41607</v>
       </c>
       <c r="B167" t="n">
-        <v>-445886.8939999999</v>
+        <v>37081.25000000017</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45230</v>
+        <v>41639</v>
       </c>
       <c r="B168" t="n">
-        <v>-391466.894</v>
+        <v>37881.25000000016</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45260</v>
+        <v>41670</v>
       </c>
       <c r="B169" t="n">
-        <v>-401341.894</v>
+        <v>35700.00000000016</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45289</v>
+        <v>41698</v>
       </c>
       <c r="B170" t="n">
-        <v>-220891.8940000001</v>
+        <v>35693.75000000017</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45322</v>
+        <v>41729</v>
       </c>
       <c r="B171" t="n">
-        <v>-189716.8940000001</v>
+        <v>35093.75000000016</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45351</v>
+        <v>41759</v>
       </c>
       <c r="B172" t="n">
-        <v>-96606.89400000012</v>
+        <v>34137.50000000016</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45379</v>
+        <v>41789</v>
       </c>
       <c r="B173" t="n">
-        <v>-24171.89400000012</v>
+        <v>33625.00000000019</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45412</v>
+        <v>41820</v>
       </c>
       <c r="B174" t="n">
-        <v>-93211.8939999998</v>
+        <v>32825.00000000019</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45415</v>
+        <v>41851</v>
       </c>
       <c r="B175" t="n">
-        <v>-177111.8939999998</v>
+        <v>36650.00000000019</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>41880</v>
+      </c>
+      <c r="B176" t="n">
+        <v>39862.5000000002</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>41912</v>
+      </c>
+      <c r="B177" t="n">
+        <v>46112.50000000017</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>41943</v>
+      </c>
+      <c r="B178" t="n">
+        <v>47425.0000000002</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>41971</v>
+      </c>
+      <c r="B179" t="n">
+        <v>48600.00000000017</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B180" t="n">
+        <v>49862.50000000017</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>42034</v>
+      </c>
+      <c r="B181" t="n">
+        <v>60000.00000000019</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>42062</v>
+      </c>
+      <c r="B182" t="n">
+        <v>61262.50000000019</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>42094</v>
+      </c>
+      <c r="B183" t="n">
+        <v>66775.0000000002</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>42124</v>
+      </c>
+      <c r="B184" t="n">
+        <v>63931.25000000021</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>42153</v>
+      </c>
+      <c r="B185" t="n">
+        <v>59818.75000000022</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>42185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>56793.75000000024</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>42216</v>
+      </c>
+      <c r="B187" t="n">
+        <v>55343.75000000023</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>42247</v>
+      </c>
+      <c r="B188" t="n">
+        <v>52325.00000000021</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>42277</v>
+      </c>
+      <c r="B189" t="n">
+        <v>47593.7500000002</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>42307</v>
+      </c>
+      <c r="B190" t="n">
+        <v>44900.0000000002</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>42338</v>
+      </c>
+      <c r="B191" t="n">
+        <v>50312.50000000019</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B192" t="n">
+        <v>44587.5000000002</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>42398</v>
+      </c>
+      <c r="B193" t="n">
+        <v>42168.7500000002</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>42429</v>
+      </c>
+      <c r="B194" t="n">
+        <v>40968.75000000019</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>42460</v>
+      </c>
+      <c r="B195" t="n">
+        <v>43700.00000000018</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>42489</v>
+      </c>
+      <c r="B196" t="n">
+        <v>44362.50000000019</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>42521</v>
+      </c>
+      <c r="B197" t="n">
+        <v>41600.00000000018</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>42551</v>
+      </c>
+      <c r="B198" t="n">
+        <v>40012.50000000018</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>42580</v>
+      </c>
+      <c r="B199" t="n">
+        <v>38575.00000000017</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>42613</v>
+      </c>
+      <c r="B200" t="n">
+        <v>36343.75000000017</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>42643</v>
+      </c>
+      <c r="B201" t="n">
+        <v>36343.75000000017</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>42674</v>
+      </c>
+      <c r="B202" t="n">
+        <v>37143.75000000017</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>42704</v>
+      </c>
+      <c r="B203" t="n">
+        <v>37756.25000000018</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>42734</v>
+      </c>
+      <c r="B204" t="n">
+        <v>38137.50000000018</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>42766</v>
+      </c>
+      <c r="B205" t="n">
+        <v>36331.25000000017</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>42794</v>
+      </c>
+      <c r="B206" t="n">
+        <v>36331.25000000017</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>42825</v>
+      </c>
+      <c r="B207" t="n">
+        <v>35412.50000000017</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>42853</v>
+      </c>
+      <c r="B208" t="n">
+        <v>35275.00000000018</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>42886</v>
+      </c>
+      <c r="B209" t="n">
+        <v>39462.50000000017</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>42916</v>
+      </c>
+      <c r="B210" t="n">
+        <v>42100.00000000018</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>42947</v>
+      </c>
+      <c r="B211" t="n">
+        <v>47018.75000000018</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>42978</v>
+      </c>
+      <c r="B212" t="n">
+        <v>47662.50000000018</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>43007</v>
+      </c>
+      <c r="B213" t="n">
+        <v>45975.00000000017</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>43039</v>
+      </c>
+      <c r="B214" t="n">
+        <v>46106.25000000017</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>43069</v>
+      </c>
+      <c r="B215" t="n">
+        <v>44143.75000000015</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>43098</v>
+      </c>
+      <c r="B216" t="n">
+        <v>45831.25000000013</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>43131</v>
+      </c>
+      <c r="B217" t="n">
+        <v>50481.25000000015</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>43159</v>
+      </c>
+      <c r="B218" t="n">
+        <v>47600.00000000015</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>43188</v>
+      </c>
+      <c r="B219" t="n">
+        <v>49368.75000000013</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>43220</v>
+      </c>
+      <c r="B220" t="n">
+        <v>49856.25000000015</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>43251</v>
+      </c>
+      <c r="B221" t="n">
+        <v>55137.50000000014</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>43280</v>
+      </c>
+      <c r="B222" t="n">
+        <v>54687.50000000013</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>43312</v>
+      </c>
+      <c r="B223" t="n">
+        <v>53931.25000000015</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>43343</v>
+      </c>
+      <c r="B224" t="n">
+        <v>52293.75000000015</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>43371</v>
+      </c>
+      <c r="B225" t="n">
+        <v>50331.25000000017</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>43404</v>
+      </c>
+      <c r="B226" t="n">
+        <v>51600.00000000015</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>43434</v>
+      </c>
+      <c r="B227" t="n">
+        <v>52018.75000000015</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B228" t="n">
+        <v>50012.50000000015</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>43496</v>
+      </c>
+      <c r="B229" t="n">
+        <v>47787.50000000017</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>43524</v>
+      </c>
+      <c r="B230" t="n">
+        <v>45856.25000000017</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>43553</v>
+      </c>
+      <c r="B231" t="n">
+        <v>44156.25000000018</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>43585</v>
+      </c>
+      <c r="B232" t="n">
+        <v>42550.00000000017</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>43616</v>
+      </c>
+      <c r="B233" t="n">
+        <v>43543.75000000016</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>43644</v>
+      </c>
+      <c r="B234" t="n">
+        <v>43225.00000000015</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>43677</v>
+      </c>
+      <c r="B235" t="n">
+        <v>41625.00000000015</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>43707</v>
+      </c>
+      <c r="B236" t="n">
+        <v>41793.75000000014</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>43738</v>
+      </c>
+      <c r="B237" t="n">
+        <v>42131.25000000016</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="B238" t="n">
+        <v>39693.75000000017</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>43798</v>
+      </c>
+      <c r="B239" t="n">
+        <v>38593.75000000017</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B240" t="n">
+        <v>39862.50000000019</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="B241" t="n">
+        <v>36737.50000000019</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>43889</v>
+      </c>
+      <c r="B242" t="n">
+        <v>36568.7500000002</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>43921</v>
+      </c>
+      <c r="B243" t="n">
+        <v>30393.75000000019</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="B244" t="n">
+        <v>28818.75000000019</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>43980</v>
+      </c>
+      <c r="B245" t="n">
+        <v>28818.75000000019</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>44012</v>
+      </c>
+      <c r="B246" t="n">
+        <v>29587.5000000002</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="B247" t="n">
+        <v>36412.5000000002</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>44074</v>
+      </c>
+      <c r="B248" t="n">
+        <v>38162.5000000002</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>44104</v>
+      </c>
+      <c r="B249" t="n">
+        <v>35006.25000000019</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>44134</v>
+      </c>
+      <c r="B250" t="n">
+        <v>35006.25000000019</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>44165</v>
+      </c>
+      <c r="B251" t="n">
+        <v>33006.25000000018</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B252" t="n">
+        <v>36700.00000000018</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>44225</v>
+      </c>
+      <c r="B253" t="n">
+        <v>35412.50000000018</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>34562.50000000019</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B255" t="n">
+        <v>37925.0000000002</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="B256" t="n">
+        <v>33393.75000000019</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44344</v>
+      </c>
+      <c r="B257" t="n">
+        <v>35543.7500000002</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44377</v>
+      </c>
+      <c r="B258" t="n">
+        <v>34312.50000000018</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44407</v>
+      </c>
+      <c r="B259" t="n">
+        <v>34300.00000000018</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44439</v>
+      </c>
+      <c r="B260" t="n">
+        <v>34931.25000000018</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="B261" t="n">
+        <v>35668.75000000021</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44498</v>
+      </c>
+      <c r="B262" t="n">
+        <v>36062.5000000002</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="B263" t="n">
+        <v>39087.5000000002</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B264" t="n">
+        <v>38137.5000000002</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B265" t="n">
+        <v>37625.0000000002</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B266" t="n">
+        <v>34031.25000000018</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B267" t="n">
+        <v>35625.00000000016</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B268" t="n">
+        <v>42000.00000000017</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B269" t="n">
+        <v>40087.50000000017</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B270" t="n">
+        <v>42637.50000000016</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B271" t="n">
+        <v>46181.25000000017</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B272" t="n">
+        <v>48662.50000000017</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44834</v>
+      </c>
+      <c r="B273" t="n">
+        <v>51093.75000000017</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B274" t="n">
+        <v>49400.00000000016</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B275" t="n">
+        <v>52487.50000000015</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44925</v>
+      </c>
+      <c r="B276" t="n">
+        <v>56556.25000000014</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B277" t="n">
+        <v>58287.50000000015</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B278" t="n">
+        <v>55562.50000000015</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B279" t="n">
+        <v>52756.25000000013</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45044</v>
+      </c>
+      <c r="B280" t="n">
+        <v>54568.75000000015</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B281" t="n">
+        <v>52600.00000000013</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B282" t="n">
+        <v>47918.75000000015</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B283" t="n">
+        <v>47412.50000000013</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B284" t="n">
+        <v>45862.50000000013</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B285" t="n">
+        <v>48862.50000000013</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B286" t="n">
+        <v>48987.50000000015</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B287" t="n">
+        <v>48493.75000000009</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B288" t="n">
+        <v>50718.7500000001</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B289" t="n">
+        <v>48112.50000000012</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B290" t="n">
+        <v>47481.25000000012</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B291" t="n">
+        <v>46400.0000000001</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B292" t="n">
+        <v>46887.5000000001</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B293" t="n">
+        <v>45400.00000000009</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B294" t="n">
+        <v>43931.2500000001</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B295" t="n">
+        <v>44781.25000000012</v>
       </c>
     </row>
   </sheetData>
